--- a/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED884E7-0C55-4F40-9D45-911E47DBE57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDD69AD-8E5E-4D0C-90D1-ABC4E0E892DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -828,18 +817,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1292,7 +1281,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1348,8 +1337,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,14 +1361,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1404,7 +1393,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,7 +1410,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1429,7 +1418,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1476,7 +1465,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1539,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1626,7 +1615,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,16 +1626,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1706,7 +1695,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,10 +1704,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,23 +1722,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,7 +1752,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1776,20 +1765,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2120,19 +2109,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2141,7 +2130,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2156,7 +2145,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2169,13 +2158,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>71.449996948242188</v>
+        <v>70.699996948242188</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2193,7 +2182,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2207,13 +2196,13 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>1534865.2528707958</v>
+        <v>1518754.0004030459</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2226,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2252,15 +2241,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.092014988263448</v>
+        <v>1.0876400073369343</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2268,7 +2257,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2279,7 +2268,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2293,7 +2282,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2305,8 +2294,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2317,7 +2306,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2328,7 +2317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2342,7 +2331,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2351,8 +2340,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2365,7 +2354,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2376,7 +2365,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2387,7 +2376,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2399,7 +2388,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2412,10 +2401,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.0156560839053514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0090374377554401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2428,10 +2417,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>8.3410944993110026E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8.3958067933530514E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2447,7 +2436,7 @@
         <v>0.83334301427395785</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2460,11 +2449,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.9509928323997605E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.9965869404346057E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2482,919 +2471,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>51.25923956169455</v>
+        <v>50.973936663946681</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>78.353353255067574</v>
+        <v>78.249911062412735</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>62.682682604054058</v>
+        <v>62.599928849930194</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3458,7 +3447,7 @@
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3466,7 +3455,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3474,7 +3463,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3491,7 +3480,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3517,13 +3506,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3573,7 +3562,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3595,7 +3584,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3646,7 +3635,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3668,7 +3657,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3719,7 +3708,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3741,7 +3730,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3792,7 +3781,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3814,7 +3803,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3865,7 +3854,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3883,7 +3872,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3905,7 +3894,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3929,7 +3918,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3951,7 +3940,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3973,7 +3962,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4024,7 +4013,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4075,7 +4064,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4126,7 +4115,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4177,7 +4166,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4228,7 +4217,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4279,7 +4268,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4330,7 +4319,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4353,7 +4342,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4377,7 +4366,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4400,7 +4389,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4423,7 +4412,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4446,7 +4435,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4469,7 +4458,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4492,7 +4481,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4543,7 +4532,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4566,7 +4555,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4589,7 +4578,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4613,7 +4602,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4664,7 +4653,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4715,7 +4704,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4733,7 +4722,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4784,7 +4773,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4835,7 +4824,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4886,7 +4875,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4937,7 +4926,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4988,7 +4977,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5039,7 +5028,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5090,7 +5079,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5108,7 +5097,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5159,7 +5148,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5210,7 +5199,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5227,7 +5216,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5277,7 +5266,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5327,7 +5316,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5377,7 +5366,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5427,1260 +5416,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21">
@@ -6724,7 +6713,7 @@
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6733,11 +6722,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6753,7 +6742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6776,7 +6765,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6792,7 +6781,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6807,18 +6796,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-77872.203140174883</v>
+        <v>-77529.086392802274</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0562713689953132</v>
+        <v>1.0560234288020054</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6832,7 +6821,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6855,13 +6844,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6880,7 +6869,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6905,7 +6894,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6929,7 +6918,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6952,7 +6941,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6976,7 +6965,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6999,7 +6988,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7025,7 +7014,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7045,7 +7034,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7066,7 +7055,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7085,7 +7074,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7105,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7127,7 +7116,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7146,7 +7135,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7168,7 +7157,7 @@
         <v>520807</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7177,7 +7166,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7199,7 +7188,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7228,7 +7217,7 @@
         <v>0.59277056589475974</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7261,7 +7250,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7294,7 +7283,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7323,7 +7312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7335,7 +7324,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7357,7 +7346,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7382,7 +7371,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7404,7 +7393,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7427,7 +7416,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7450,7 +7439,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7473,7 +7462,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7495,7 +7484,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7519,7 +7508,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7539,7 +7528,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7556,7 +7545,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7576,7 +7565,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7595,7 +7584,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7620,7 +7609,7 @@
         <v>21261</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7629,7 +7618,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7648,7 +7637,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7667,7 +7656,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7697,7 +7686,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7727,7 +7716,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7753,7 +7742,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7780,20 +7769,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7810,7 +7799,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7820,18 +7809,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0156560839053514</v>
+        <v>1.0090374377554401</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>4392.7125628906451</v>
+        <v>4364.0869182922779</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7840,7 +7829,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7851,7 +7840,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7866,7 +7855,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7881,7 +7870,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7895,7 +7884,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7904,7 +7893,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7918,7 +7907,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7939,7 +7928,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7960,7 +7949,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7981,7 +7970,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7996,7 +7985,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8017,7 +8006,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8027,7 +8016,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8041,7 +8030,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8062,7 +8051,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8077,7 +8066,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8098,7 +8087,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8112,7 +8101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
@@ -8126,7 +8115,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8141,7 +8130,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8162,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8177,7 +8166,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8198,7 +8187,7 @@
         <v>0.66167150000644004</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8213,7 +8202,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8234,7 +8223,7 @@
         <v>3.6955976811858409E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8255,7 +8244,7 @@
         <v>0.17959118565275847</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8278,7 +8267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8299,7 +8288,7 @@
         <v>1.6744128904032363E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8320,7 +8309,7 @@
         <v>0.15487427537057533</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8331,7 +8320,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8352,7 +8341,7 @@
         <v>0.11615570652793149</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8367,7 +8356,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8388,11 +8377,11 @@
         <v>0.83334301427395785</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8402,7 +8391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8413,7 +8402,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8426,11 +8415,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3410944993110026E-2</v>
+        <v>8.3958067933530514E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8447,14 +8436,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>92.572091943020567</v>
+        <v>92.806072853291582</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8472,51 +8461,51 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>1424400.9028598496</v>
+        <v>1422280.0972786855</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>66.307736116935146</v>
+        <v>66.209009826781298</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>50.259651803730392</v>
+        <v>50.184819676175067</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>4796.907957809728</v>
+        <v>4746.5555278304319</v>
       </c>
       <c r="D96" s="154">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.22330237674313635</v>
+        <v>0.22095840487874749</v>
       </c>
       <c r="E96" s="130"/>
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-73075.295182365153</v>
+        <v>-72782.53086497185</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-3.4017511361379471</v>
+        <v>-3.3881225719723429</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8524,32 +8513,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>1346528.6997196747</v>
+        <v>1344751.0108858831</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>62.682682604054058</v>
+        <v>62.599928849930194</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>51.25923956169455</v>
+        <v>50.973936663946681</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>78.353353255067574</v>
+        <v>78.249911062412735</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8566,34 +8555,34 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1568946.672265345</v>
+        <v>1562660.9419048182</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>73.036531862090598</v>
+        <v>72.743922843652598</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>54.777398896567945</v>
+        <v>54.557942132739448</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>91.295664827613251</v>
+        <v>90.929903554565755</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8610,28 +8599,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>1457737.6859925098</v>
+        <v>1453705.9763953506</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>67.859607233072325</v>
+        <v>67.671925846791396</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>50.894705424804243</v>
+        <v>50.753944385093547</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>84.824509041340406</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>84.589907308489245</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDD69AD-8E5E-4D0C-90D1-ABC4E0E892DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A6280F-6CC0-234A-8188-3EB352D0AF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -817,18 +828,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1281,7 +1292,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1337,8 +1348,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1361,14 +1372,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1393,7 +1404,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,7 +1421,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1418,7 +1429,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1465,7 +1476,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1539,7 +1550,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1615,7 +1626,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1626,16 +1637,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1695,7 +1706,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,10 +1715,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1722,23 +1733,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1752,7 +1763,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1765,20 +1776,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2109,19 +2120,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2130,7 +2141,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2145,7 +2156,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2158,13 +2169,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>70.699996948242188</v>
+        <v>70.800003051757812</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2182,7 +2193,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2196,13 +2207,13 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>1518754.0004030459</v>
+        <v>1520902.2985124541</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2226,7 +2237,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2241,15 +2252,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0876400073369343</v>
+        <v>1.0866400003433228</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2257,7 +2268,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2268,7 +2279,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2282,7 +2293,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2294,8 +2305,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2306,7 +2317,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2317,7 +2328,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2331,7 +2342,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2340,8 +2351,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2354,7 +2365,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2365,7 +2376,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2376,7 +2387,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2388,7 +2399,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2401,10 +2412,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.0090374377554401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.0113946397269664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2417,10 +2428,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>8.3958067933530514E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8.3762391473042375E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2436,7 +2447,7 @@
         <v>0.83334301427395785</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2449,11 +2460,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.9965869404346057E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.9802803792940404E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2471,919 +2482,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>50.973936663946681</v>
+        <v>50.827256635718243</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>78.249911062412735</v>
+        <v>78.10271642326741</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>62.599928849930194</v>
+        <v>62.482173138613931</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3447,7 +3458,7 @@
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3455,7 +3466,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3463,7 +3474,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3480,7 +3491,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3506,13 +3517,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3562,7 +3573,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3584,7 +3595,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3635,7 +3646,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3657,7 +3668,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3708,7 +3719,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3730,7 +3741,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3781,7 +3792,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3803,7 +3814,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3854,7 +3865,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3872,7 +3883,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3894,7 +3905,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3918,7 +3929,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3940,7 +3951,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3962,7 +3973,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4013,7 +4024,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4064,7 +4075,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4115,7 +4126,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4166,7 +4177,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4217,7 +4228,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4268,7 +4279,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4319,7 +4330,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4342,7 +4353,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4366,7 +4377,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4389,7 +4400,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4412,7 +4423,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4435,7 +4446,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4458,7 +4469,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4481,7 +4492,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4532,7 +4543,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4555,7 +4566,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4578,7 +4589,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4602,7 +4613,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4653,7 +4664,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4704,7 +4715,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4722,7 +4733,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4773,7 +4784,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4824,7 +4835,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4875,7 +4886,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4926,7 +4937,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4977,7 +4988,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5028,7 +5039,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5079,7 +5090,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5097,7 +5108,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5148,7 +5159,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5199,7 +5210,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5216,7 +5227,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5266,7 +5277,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5316,7 +5327,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5366,7 +5377,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5416,1260 +5427,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21">
@@ -6713,7 +6724,7 @@
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6722,11 +6733,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6742,7 +6753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6765,7 +6776,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6781,7 +6792,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6796,18 +6807,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-77529.086392802274</v>
+        <v>-77468.882141904527</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0560234288020054</v>
+        <v>1.0559799245029007</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6821,7 +6832,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6844,13 +6855,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6869,7 +6880,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6894,7 +6905,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6918,7 +6929,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6941,7 +6952,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6965,7 +6976,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6988,7 +6999,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7014,7 +7025,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7034,7 +7045,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7055,7 +7066,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7074,7 +7085,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7094,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7116,7 +7127,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7135,7 +7146,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7157,7 +7168,7 @@
         <v>520807</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7166,7 +7177,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7188,7 +7199,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7217,7 +7228,7 @@
         <v>0.59277056589475974</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7250,7 +7261,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7283,7 +7294,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7312,7 +7323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7324,7 +7335,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7346,7 +7357,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7371,7 +7382,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7393,7 +7404,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7416,7 +7427,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7439,7 +7450,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7462,7 +7473,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7484,7 +7495,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7508,7 +7519,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7528,7 +7539,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7545,7 +7556,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7565,7 +7576,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7584,7 +7595,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7609,7 +7620,7 @@
         <v>21261</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7618,7 +7629,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7637,7 +7648,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7656,7 +7667,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7686,7 +7697,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7716,7 +7727,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7742,7 +7753,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7769,20 +7780,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7799,7 +7810,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7809,18 +7820,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0090374377554401</v>
+        <v>1.0113946397269664</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>4364.0869182922779</v>
+        <v>4374.2818168191297</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7829,7 +7840,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7840,7 +7851,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7855,7 +7866,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7870,7 +7881,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7884,7 +7895,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7893,7 +7904,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7907,7 +7918,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7928,7 +7939,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7949,7 +7960,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7970,7 +7981,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7985,7 +7996,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8006,7 +8017,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8016,7 +8027,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8030,7 +8041,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8051,7 +8062,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8066,7 +8077,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8087,7 +8098,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8101,7 +8112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
@@ -8115,7 +8126,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8130,7 +8141,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8151,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8166,7 +8177,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8187,7 +8198,7 @@
         <v>0.66167150000644004</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8202,7 +8213,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8223,7 +8234,7 @@
         <v>3.6955976811858409E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8244,7 +8255,7 @@
         <v>0.17959118565275847</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8267,7 +8278,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8288,7 +8299,7 @@
         <v>1.6744128904032363E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8309,7 +8320,7 @@
         <v>0.15487427537057533</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8320,7 +8331,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8341,7 +8352,7 @@
         <v>0.11615570652793149</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8356,7 +8367,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8377,11 +8388,11 @@
         <v>0.83334301427395785</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8391,7 +8402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8402,7 +8413,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8415,11 +8426,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3958067933530514E-2</v>
+        <v>8.3762391473042375E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8436,14 +8447,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>92.806072853291582</v>
+        <v>92.72233617987601</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8461,51 +8472,51 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>1422280.0972786855</v>
+        <v>1419690.3037017398</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>66.209009826781298</v>
+        <v>66.088451528374804</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>50.184819676175067</v>
+        <v>50.093439417176711</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>4746.5555278304319</v>
+        <v>4753.2695949301296</v>
       </c>
       <c r="D96" s="154">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.22095840487874749</v>
+        <v>0.22127095353595791</v>
       </c>
       <c r="E96" s="130"/>
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-72782.53086497185</v>
+        <v>-72715.6125469744</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-3.3881225719723429</v>
+        <v>-3.385007436224917</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8513,32 +8524,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>1344751.0108858831</v>
+        <v>1342221.4215598353</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>62.599928849930194</v>
+        <v>62.482173138613931</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>50.973936663946681</v>
+        <v>50.827256635718243</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>78.249911062412735</v>
+        <v>78.10271642326741</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8555,34 +8566,34 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1562660.9419048182</v>
+        <v>1561224.1872249544</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>72.743922843652598</v>
+        <v>72.677040022962231</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>54.557942132739448</v>
+        <v>54.507780017221677</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>90.929903554565755</v>
+        <v>90.846300028702785</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8599,28 +8610,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>1453705.9763953506</v>
+        <v>1451722.8043923948</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>67.671925846791396</v>
+        <v>67.579606580788081</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>50.753944385093547</v>
+        <v>50.684704935591057</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>84.589907308489245</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>84.474508225985105</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A6280F-6CC0-234A-8188-3EB352D0AF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0BFA9FF-4245-46FE-AF9D-006C4FD02C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -828,18 +817,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1292,7 +1281,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1348,8 +1337,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1372,14 +1361,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1404,7 +1393,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,7 +1410,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1429,7 +1418,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1476,7 +1465,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1539,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1626,7 +1615,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,16 +1626,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1706,7 +1695,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,10 +1704,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,23 +1722,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,7 +1752,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1776,20 +1765,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2120,19 +2109,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2141,7 +2130,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2156,7 +2145,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2169,13 +2158,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>70.800003051757812</v>
+        <v>70.800003051757813</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2193,7 +2182,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2213,7 +2202,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2226,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2252,15 +2241,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0866400003433228</v>
+        <v>1.0845636924107869</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2268,7 +2257,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2279,7 +2268,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2293,7 +2282,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2305,8 +2294,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2317,7 +2306,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2328,7 +2317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2342,7 +2331,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2351,8 +2340,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2365,7 +2354,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2376,7 +2365,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2387,7 +2376,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2399,7 +2388,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2412,10 +2401,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.0113946397269664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0133308715297493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2428,10 +2417,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>8.3762391473042375E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8.3602341670155761E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2447,7 +2436,7 @@
         <v>0.83334301427395785</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2460,11 +2449,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.9802803792940404E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.9669427407768922E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2482,919 +2471,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>50.827256635718243</v>
+        <v>50.585876110673894</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>78.10271642326741</v>
+        <v>77.892087385912262</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>62.482173138613931</v>
+        <v>62.313669908729814</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3458,7 +3447,7 @@
       <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3466,7 +3455,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3474,7 +3463,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3491,7 +3480,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3517,13 +3506,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3573,7 +3562,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3595,7 +3584,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3646,7 +3635,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3668,7 +3657,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3719,7 +3708,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3741,7 +3730,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3792,7 +3781,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3814,7 +3803,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3865,7 +3854,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3883,7 +3872,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3905,7 +3894,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3929,7 +3918,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3951,7 +3940,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3973,7 +3962,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4024,7 +4013,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4075,7 +4064,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4126,7 +4115,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4177,7 +4166,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4228,7 +4217,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4279,7 +4268,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4330,7 +4319,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4353,7 +4342,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4377,7 +4366,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4400,7 +4389,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4423,7 +4412,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4446,7 +4435,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4469,7 +4458,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4492,7 +4481,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4543,7 +4532,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4566,7 +4555,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4589,7 +4578,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4613,7 +4602,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4664,7 +4653,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4715,7 +4704,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4733,7 +4722,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4784,7 +4773,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4835,7 +4824,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4886,7 +4875,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4937,7 +4926,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4988,7 +4977,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5039,7 +5028,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5090,7 +5079,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5108,7 +5097,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5159,7 +5148,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5210,7 +5199,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5227,7 +5216,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5277,7 +5266,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5327,7 +5316,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5377,7 +5366,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5427,1260 +5416,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21">
@@ -6724,7 +6713,7 @@
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6733,11 +6722,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6753,7 +6742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6776,7 +6765,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6792,7 +6781,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6807,18 +6796,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-77468.882141904527</v>
+        <v>-77329.940079121283</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0559799245029007</v>
+        <v>1.0558795233357503</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6832,7 +6821,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6855,13 +6844,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6880,7 +6869,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6905,7 +6894,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6929,7 +6918,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6952,7 +6941,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6976,7 +6965,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6999,7 +6988,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7025,7 +7014,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7045,7 +7034,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7066,7 +7055,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7085,7 +7074,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7105,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7127,7 +7116,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7146,7 +7135,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7168,7 +7157,7 @@
         <v>520807</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7177,7 +7166,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7199,7 +7188,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7228,7 +7217,7 @@
         <v>0.59277056589475974</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7261,7 +7250,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7294,7 +7283,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7323,7 +7312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7335,7 +7324,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7357,7 +7346,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7382,7 +7371,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7404,7 +7393,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7427,7 +7416,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7450,7 +7439,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7473,7 +7462,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7495,7 +7484,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7519,7 +7508,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7539,7 +7528,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7556,7 +7545,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7576,7 +7565,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7595,7 +7584,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7620,7 +7609,7 @@
         <v>21261</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7629,7 +7618,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7648,7 +7637,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7667,7 +7656,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7697,7 +7686,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7727,7 +7716,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7753,7 +7742,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7780,20 +7769,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7810,7 +7799,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7820,18 +7809,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0113946397269664</v>
+        <v>1.0133308715297493</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>4374.2818168191297</v>
+        <v>4382.6560193661662</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7840,7 +7829,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7851,7 +7840,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7866,7 +7855,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7881,7 +7870,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7895,7 +7884,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7904,7 +7893,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7918,7 +7907,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7939,7 +7928,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7960,7 +7949,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7981,7 +7970,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7996,7 +7985,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8017,7 +8006,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8027,7 +8016,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8041,7 +8030,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8062,7 +8051,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8077,7 +8066,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8098,7 +8087,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8112,7 +8101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
@@ -8126,7 +8115,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8141,7 +8130,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8162,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8177,7 +8166,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8198,7 +8187,7 @@
         <v>0.66167150000644004</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8213,7 +8202,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8234,7 +8223,7 @@
         <v>3.6955976811858409E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8255,7 +8244,7 @@
         <v>0.17959118565275847</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8278,7 +8267,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8299,7 +8288,7 @@
         <v>1.6744128904032363E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8320,7 +8309,7 @@
         <v>0.15487427537057533</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8331,7 +8320,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8352,7 +8341,7 @@
         <v>0.11615570652793149</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8367,7 +8356,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8388,11 +8377,11 @@
         <v>0.83334301427395785</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8402,7 +8391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8413,7 +8402,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8426,11 +8415,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3762391473042375E-2</v>
+        <v>8.3602341670155761E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (CN)</v>
@@ -8447,14 +8436,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>92.72233617987601</v>
+        <v>92.653890323108968</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8472,51 +8461,51 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>1419690.3037017398</v>
+        <v>1415931.6308678975</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>66.088451528374804</v>
+        <v>65.913480362661616</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>50.093439417176711</v>
+        <v>49.960815527726929</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>4753.2695949301296</v>
+        <v>4753.2695949301306</v>
       </c>
       <c r="D96" s="154">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.22127095353595791</v>
+        <v>0.22127095353595796</v>
       </c>
       <c r="E96" s="130"/>
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-72715.6125469744</v>
+        <v>-72576.670484191156</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-3.385007436224917</v>
+        <v>-3.3785395003958425</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8524,32 +8513,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>1342221.4215598353</v>
+        <v>1338601.6907887761</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>62.482173138613931</v>
+        <v>62.313669908729814</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>50.827256635718243</v>
+        <v>50.585876110673894</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>78.10271642326741</v>
+        <v>77.892087385912262</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8566,34 +8555,34 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1561224.1872249544</v>
+        <v>1558241.0629488574</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>72.677040022962231</v>
+        <v>72.538171663003794</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>54.507780017221677</v>
+        <v>54.403628747252846</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>90.846300028702785</v>
+        <v>90.67271457875475</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8610,28 +8599,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>1451722.8043923948</v>
+        <v>1448421.3768688168</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>67.579606580788081</v>
+        <v>67.425920785866808</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>50.684704935591057</v>
+        <v>50.569440589400102</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>84.474508225985105</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>84.282400982333513</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0BFA9FF-4245-46FE-AF9D-006C4FD02C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E08EB7-CD2C-4EAC-A624-BEEA98D1EE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>70.800003051757813</v>
+        <v>70.099998474121094</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>1520902.2985124541</v>
+        <v>1505865.031207273</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
@@ -2241,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="170">
-        <v>1.0845636924107869</v>
+        <v>1.0842636823654175</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.0133308715297493</v>
+        <v>1.0035896095330883</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>8.3602341670155761E-2</v>
+        <v>8.4413821089639046E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>6.9669427407768922E-2</v>
+        <v>7.034566811322239E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2477,16 +2477,16 @@
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>50.585876110673894</v>
+        <v>50.762107466405496</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>77.892087385912262</v>
+        <v>78.182080837771892</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>62.313669908729814</v>
+        <v>62.545664670217512</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -6803,11 +6803,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-77329.940079121283</v>
+        <v>-77262.868143265907</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0558795233357503</v>
+        <v>1.0558310563667992</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7809,11 +7809,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0133308715297493</v>
+        <v>1.0035896095330883</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>4382.6560193661662</v>
+        <v>4340.5250612306072</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -8415,7 +8415,7 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3602341670155761E-2</v>
+        <v>8.4413821089639046E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>92.653890323108968</v>
+        <v>93.00133983046436</v>
       </c>
       <c r="H92" s="195"/>
     </row>
@@ -8467,15 +8467,15 @@
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>1415931.6308678975</v>
+        <v>1420848.1938300738</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>65.913480362661616</v>
+        <v>66.142352837288485</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>49.960815527726929</v>
+        <v>50.134295298804005</v>
       </c>
       <c r="H95" s="24"/>
     </row>
@@ -8485,11 +8485,11 @@
       </c>
       <c r="C96" s="102">
         <f>E53*Exchange_Rate</f>
-        <v>4753.2695949301306</v>
+        <v>4706.2736862892771</v>
       </c>
       <c r="D96" s="154">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.22127095353595796</v>
+        <v>0.21908323215605938</v>
       </c>
       <c r="E96" s="130"/>
       <c r="F96" s="137"/>
@@ -8501,11 +8501,11 @@
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-72576.670484191156</v>
+        <v>-72556.594456976629</v>
       </c>
       <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-3.3785395003958425</v>
+        <v>-3.3776049349149129</v>
       </c>
       <c r="E97" s="198"/>
       <c r="F97" s="156" t="s">
@@ -8519,19 +8519,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>1338601.6907887761</v>
+        <v>1343585.3256868077</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>62.313669908729814</v>
+        <v>62.545664670217512</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>50.585876110673894</v>
+        <v>50.762107466405496</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>77.892087385912262</v>
+        <v>78.182080837771892</v>
       </c>
       <c r="H98" s="24"/>
     </row>
@@ -8561,19 +8561,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1558241.0629488574</v>
+        <v>1557810.0251266777</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>72.538171663003794</v>
+        <v>72.518106285263499</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>54.403628747252846</v>
+        <v>54.388579713947621</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>90.67271457875475</v>
+        <v>90.647632856579378</v>
       </c>
       <c r="H101" s="24" t="s">
         <v>222</v>
@@ -8605,19 +8605,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>1448421.3768688168</v>
+        <v>1450697.6754067426</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>67.425920785866808</v>
+        <v>67.531885477740502</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>50.569440589400102</v>
+        <v>50.648914108305377</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>84.282400982333513</v>
+        <v>84.414856847175628</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D087218-DF9F-4A84-94F0-02C156F7DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D3C961-E48B-41CA-A007-69FCB97673DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1947,6 +1947,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,9 +1991,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2415,17 +2415,17 @@
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="245" t="str">
+      <c r="C3" s="246" t="str">
         <f>Inputs!C4</f>
         <v>0941.HK</v>
       </c>
-      <c r="D3" s="246"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>70.099998474121094</v>
+        <v>70</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2435,40 +2435,40 @@
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="247" t="str">
+      <c r="C4" s="248" t="str">
         <f>Inputs!C5</f>
         <v>中国移动</v>
       </c>
-      <c r="D4" s="248"/>
+      <c r="D4" s="249"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="251">
+      <c r="G4" s="252">
         <f>Inputs!C10</f>
         <v>21481669957</v>
       </c>
-      <c r="H4" s="251"/>
+      <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="249">
+      <c r="C5" s="250">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="250"/>
+      <c r="D5" s="251"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="243">
+      <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>1505865.031207273</v>
-      </c>
-      <c r="H5" s="243"/>
+        <v>1503716.89699</v>
+      </c>
+      <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2491,11 +2491,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="244" t="str">
+      <c r="G6" s="245" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="244"/>
+      <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2564,7 +2564,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2610,7 +2610,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.007551634829646</v>
+        <v>1.0069746394903105</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>8.4081878107289759E-2</v>
+        <v>8.4130056929166572E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0069045747744363E-2</v>
+        <v>7.0109195232391341E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2749,11 +2749,11 @@
         <f>Fin_Analysis!F96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="G28" s="241" t="str">
+      <c r="G28" s="242" t="str">
         <f>Fin_Analysis!H96</f>
         <v>Base Case</v>
       </c>
-      <c r="H28" s="241"/>
+      <c r="H28" s="242"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -2761,22 +2761,22 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>48.168284876174702</v>
+        <v>53.560145486130679</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>82.821385033856785</v>
+        <v>95.561564475297374</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>66.184141486162986</v>
-      </c>
-      <c r="G29" s="242">
+        <v>76.376347376842119</v>
+      </c>
+      <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>66.257108027085422</v>
-      </c>
-      <c r="H29" s="242"/>
+        <v>76.449251580237899</v>
+      </c>
+      <c r="H29" s="243"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3769,7 +3769,7 @@
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="241" t="s">
         <v>247</v>
       </c>
       <c r="E5" s="231">
@@ -8786,11 +8786,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25605.515686289302</v>
+        <v>-25580.947275748043</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0185028465022985</v>
+        <v>1.0184850930801601</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9877,11 +9877,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.007551634829646</v>
+        <v>1.0069746394903105</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4357.6608206382189</v>
+        <v>4355.1653157955934</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -9913,11 +9913,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="252">
+      <c r="D56" s="253">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="250"/>
+      <c r="E56" s="251"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -9928,11 +9928,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="251">
+      <c r="D57" s="252">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
-      <c r="E57" s="250"/>
+      <c r="E57" s="251"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -9944,11 +9944,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="251">
+      <c r="D58" s="252">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="E58" s="250"/>
+      <c r="E58" s="251"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -10162,19 +10162,19 @@
       <c r="B72" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="255">
+      <c r="C72" s="256">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="255"/>
-      <c r="E72" s="253" t="s">
+      <c r="D72" s="256"/>
+      <c r="E72" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="H72" s="253" t="s">
+      <c r="F72" s="254"/>
+      <c r="H72" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="I72" s="253"/>
+      <c r="I72" s="254"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -10184,18 +10184,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="254" t="s">
+      <c r="C73" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="254"/>
-      <c r="E73" s="256" t="s">
+      <c r="D73" s="255"/>
+      <c r="E73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="254"/>
-      <c r="H73" s="256" t="s">
+      <c r="F73" s="255"/>
+      <c r="H73" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="I73" s="254"/>
+      <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10550,17 +10550,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2021155782501192E-2</v>
+        <v>7.2062423824009264E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4081878107289759E-2</v>
+        <v>8.4130056929166572E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4081878107289759E-2</v>
+        <v>8.4130056929166572E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10601,17 +10601,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0069045747744363E-2</v>
+        <v>7.0109195232391341E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0069045747744363E-2</v>
+        <v>7.0109195232391341E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0069045747744363E-2</v>
+        <v>7.0109195232391341E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10641,15 +10641,15 @@
       <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="253" t="s">
+      <c r="E92" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="253"/>
+      <c r="F92" s="254"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="253" t="s">
+      <c r="H92" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="I92" s="253"/>
+      <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10669,14 +10669,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>102.14499538927085</v>
+        <v>113.51966119131359</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>102.14499538927085</v>
+        <v>113.51966119131359</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10694,14 +10694,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>79.760795225811265</v>
+        <v>88.63973295336217</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>79.760795225811265</v>
+        <v>88.63973295336217</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10741,19 +10741,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1612835.6372047316</v>
+        <v>1858736.2347152708</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>54.846844561472281</v>
+        <v>60.902406046526465</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>75.079620924870156</v>
+        <v>86.52661727118587</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>75.079620924870156</v>
+        <v>86.52661727118587</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10764,13 +10764,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4706.2736862892771</v>
+        <v>4699.5601314009855</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.21908323215605938</v>
+        <v>0.21877070734296383</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10781,16 +10781,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-20899.242000000027</v>
+        <v>-20881.387144347056</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-1.1188202941442309</v>
+        <v>-1.1178644520685443</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.97288721229933128</v>
+        <v>-0.97205604527699507</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1587230.1215184422</v>
+        <v>1833155.2874395228</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>53.508941035171993</v>
+        <v>59.565770887114958</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>73.741717398569861</v>
+        <v>85.189982111774356</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>73.887650480414749</v>
+        <v>85.335790518565901</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>92.359563100518443</v>
+        <v>106.66973814820737</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10855,23 +10855,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1259396.5323678472</v>
+        <v>1451359.8943731398</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>42.827628717177411</v>
+        <v>47.554520085146393</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>58.62656557375611</v>
+        <v>67.562712641909897</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>58.62656557375611</v>
+        <v>67.562712641909897</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>73.283206967195142</v>
+        <v>84.453390802387375</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10907,23 +10907,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>1421745.8837931447</v>
+        <v>1640691.4868705051</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>48.168284876174702</v>
+        <v>53.560145486130679</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>66.184141486162986</v>
+        <v>76.376347376842119</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>66.257108027085422</v>
+        <v>76.449251580237899</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>82.821385033856785</v>
+        <v>95.561564475297374</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D3C961-E48B-41CA-A007-69FCB97673DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD87B30-F8C8-404D-9C90-CE5969BD238E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>70</v>
+        <v>71.050003051757813</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>1503716.89699</v>
+        <v>1526272.7160017041</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0790773232777913</v>
+        <v>1.0758796532948811</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0069746394903105</v>
+        <v>1.0251170705414723</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>8.4130056929166572E-2</v>
+        <v>8.2641130638668348E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.0109195232391341E-2</v>
+        <v>6.886840890943581E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2761,20 +2761,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>53.560145486130679</v>
+        <v>53.054428183222853</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>95.561564475297374</v>
+        <v>94.663168882769838</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>76.376347376842119</v>
+        <v>75.657846942558677</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>76.449251580237899</v>
+        <v>75.730535106215868</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -8786,11 +8786,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25580.947275748043</v>
+        <v>-25589.562291113823</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0184850930801601</v>
+        <v>1.0184913183914908</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9877,11 +9877,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0069746394903105</v>
+        <v>1.0251170705414723</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4355.1653157955934</v>
+        <v>4433.6313300918673</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10550,17 +10550,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2062423824009264E-2</v>
+        <v>7.0787069434567543E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4130056929166572E-2</v>
+        <v>8.2641130638668348E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4130056929166572E-2</v>
+        <v>8.2641130638668348E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10601,17 +10601,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0109195232391341E-2</v>
+        <v>6.886840890943581E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0109195232391341E-2</v>
+        <v>6.886840890943581E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0109195232391341E-2</v>
+        <v>6.886840890943581E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10669,14 +10669,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>113.51966119131359</v>
+        <v>112.74226931394827</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>113.51966119131359</v>
+        <v>112.74226931394827</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10694,14 +10694,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>88.63973295336217</v>
+        <v>88.12703660915453</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>88.63973295336217</v>
+        <v>88.12703660915453</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10741,19 +10741,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1858736.2347152708</v>
+        <v>1840537.1151408541</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>60.902406046526465</v>
+        <v>60.306102951278426</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>86.52661727118587</v>
+        <v>85.679424310357135</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>86.52661727118587</v>
+        <v>85.679424310357135</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10764,13 +10764,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4699.5601314009855</v>
+        <v>4770.0537382565608</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.21877070734296383</v>
+        <v>0.22205227749075412</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10781,16 +10781,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-20881.387144347056</v>
+        <v>-20819.508552857264</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-1.1178644520685443</v>
+        <v>-1.1145518427436778</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.97205604527699507</v>
+        <v>-0.96917551542928515</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1833155.2874395228</v>
+        <v>1814947.5528497405</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>59.565770887114958</v>
+        <v>58.969498831043992</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>85.189982111774356</v>
+        <v>84.342820190122694</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>85.335790518565901</v>
+        <v>84.488196517437089</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>106.66973814820737</v>
+        <v>105.61024564679636</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10855,23 +10855,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1451359.8943731398</v>
+        <v>1438689.1687877222</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>47.554520085146393</v>
+        <v>47.139357535401707</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>67.562712641909897</v>
+        <v>66.972873694994647</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>67.562712641909897</v>
+        <v>66.972873694994647</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>84.453390802387375</v>
+        <v>83.716092118743305</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10907,23 +10907,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>1640691.4868705051</v>
+        <v>1625256.8976772672</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>53.560145486130679</v>
+        <v>53.054428183222853</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>76.376347376842119</v>
+        <v>75.657846942558677</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>76.449251580237899</v>
+        <v>75.730535106215868</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>95.561564475297374</v>
+        <v>94.663168882769838</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBD87B30-F8C8-404D-9C90-CE5969BD238E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D3A86BC-AA49-4CC0-875D-9EBD4A43FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>71.050003051757813</v>
+        <v>70.949996948242188</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>1526272.7160017041</v>
+        <v>1524124.4178922959</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
@@ -2515,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0758796532948811</v>
+        <v>1.0742770036061604</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0251170705414723</v>
+        <v>1.0252013300919649</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>8.2641130638668348E-2</v>
+        <v>8.2634338504952359E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.886840890943581E-2</v>
+        <v>6.8862748732251566E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2761,20 +2761,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>53.054428183222853</v>
+        <v>52.973820681258175</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>94.663168882769838</v>
+        <v>94.519361661503893</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.657846942558677</v>
+        <v>75.542909443142321</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>75.730535106215868</v>
+        <v>75.615489329203115</v>
       </c>
       <c r="H29" s="243"/>
     </row>
@@ -8786,11 +8786,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25589.562291113823</v>
+        <v>-25551.835109490243</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0184913183914908</v>
+        <v>1.0184640562867513</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9877,11 +9877,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0251170705414723</v>
+        <v>1.0252013300919649</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4433.6313300918673</v>
+        <v>4433.9957526477483</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10550,17 +10550,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0787069434567543E-2</v>
+        <v>7.078125156594392E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2641130638668348E-2</v>
+        <v>8.2634338504952359E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2641130638668348E-2</v>
+        <v>8.2634338504952359E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10601,17 +10601,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.886840890943581E-2</v>
+        <v>6.8862748732251566E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.886840890943581E-2</v>
+        <v>6.8862748732251566E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.886840890943581E-2</v>
+        <v>6.8862748732251566E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10669,14 +10669,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>112.74226931394827</v>
+        <v>112.73873281908052</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>112.74226931394827</v>
+        <v>112.73873281908052</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10694,14 +10694,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>88.12703660915453</v>
+        <v>88.124703256634831</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>88.12703660915453</v>
+        <v>88.124703256634831</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10741,19 +10741,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1840537.1151408541</v>
+        <v>1837737.7700481915</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>60.306102951278426</v>
+        <v>60.214381033819919</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>85.679424310357135</v>
+        <v>85.549111113186427</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>85.679424310357135</v>
+        <v>85.549111113186427</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10764,13 +10764,13 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4770.0537382565608</v>
+        <v>4763.3396711568648</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22205227749075412</v>
+        <v>0.22173972883354384</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
@@ -10781,16 +10781,16 @@
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-20819.508552857264</v>
+        <v>-20788.495438333375</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-1.1145518427436778</v>
+        <v>-1.1128915862657658</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.96917551542928515</v>
+        <v>-0.96773181414414433</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1814947.5528497405</v>
+        <v>1812185.9349387013</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>58.969498831043992</v>
+        <v>58.87974971872061</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>84.342820190122694</v>
+        <v>84.214479798087126</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>84.488196517437089</v>
+        <v>84.359639570208742</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>105.61024564679636</v>
+        <v>105.44954946276093</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10855,23 +10855,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1438689.1687877222</v>
+        <v>1436508.035875292</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>47.139357535401707</v>
+        <v>47.06789164379574</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>66.972873694994647</v>
+        <v>66.871339088197502</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>66.972873694994647</v>
+        <v>66.871339088197502</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>83.716092118743305</v>
+        <v>83.589173860246873</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10907,23 +10907,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>1625256.8976772672</v>
+        <v>1622787.848249122</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>53.054428183222853</v>
+        <v>52.973820681258175</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>75.657846942558677</v>
+        <v>75.542909443142321</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>75.730535106215868</v>
+        <v>75.615489329203115</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>94.663168882769838</v>
+        <v>94.519361661503893</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0941.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D3A86BC-AA49-4CC0-875D-9EBD4A43FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{721949E0-4043-B040-B98E-D04224670841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="1840" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -896,18 +907,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1374,7 +1385,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="258">
@@ -1430,8 +1441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1454,14 +1465,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1491,7 +1502,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1596,7 +1607,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1624,7 +1635,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,13 +1691,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1728,7 +1739,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,16 +1772,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1791,7 +1802,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1816,10 +1827,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,10 +1839,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,13 +1859,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1866,13 +1877,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1910,7 +1921,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,10 +1930,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1956,7 +1967,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1970,7 +1981,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1983,20 +1994,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2375,19 +2386,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2396,7 +2407,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2411,7 +2422,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2425,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>70.949996948242188</v>
+        <v>70.449996948242188</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2451,7 +2462,7 @@
       <c r="H4" s="252"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2466,13 +2477,13 @@
       </c>
       <c r="G5" s="244">
         <f>G3*G4/1000000</f>
-        <v>1524124.4178922959</v>
+        <v>1513383.582913796</v>
       </c>
       <c r="H5" s="244"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2509,7 @@
       <c r="H6" s="245"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2515,15 +2526,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.0742770036061604</v>
+        <v>1.074550986289978</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2568,8 +2579,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2591,7 +2602,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2605,7 +2616,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2614,8 +2625,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2630,7 +2641,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2642,10 +2653,10 @@
         <v>231</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2656,7 +2667,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2681,10 +2692,10 @@
       </c>
       <c r="G23" s="183">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0252013300919649</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.0177169565481883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2697,10 +2708,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>8.2634338504952359E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8.3242038173248753E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2716,7 +2727,7 @@
         <v>0.83334301427395785</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2729,11 +2740,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.8862748732251566E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.9369171005602984E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2755,923 +2766,923 @@
       </c>
       <c r="H28" s="242"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>52.973820681258175</v>
+        <v>34.788779112977863</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>94.519361661503893</v>
+        <v>94.793878922367554</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.542909443142321</v>
+        <v>75.762504741121447</v>
       </c>
       <c r="G29" s="243">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>75.615489329203115</v>
+        <v>75.835103137894038</v>
       </c>
       <c r="H29" s="243"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -3737,20 +3748,20 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>211</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>CNY</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>4.548</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>175</v>
       </c>
@@ -3796,7 +3807,7 @@
         <v>4.548</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +3815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>236</v>
       </c>
@@ -3812,7 +3823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>237</v>
       </c>
@@ -3820,7 +3831,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>238</v>
       </c>
@@ -3828,7 +3839,7 @@
         <v>21481669957</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>239</v>
       </c>
@@ -3836,7 +3847,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3844,7 +3855,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3852,7 +3863,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>241</v>
       </c>
@@ -3860,7 +3871,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>240</v>
       </c>
@@ -3868,7 +3879,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>98</v>
       </c>
@@ -3877,7 +3888,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>144</v>
       </c>
@@ -3926,7 +3937,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3946,7 +3957,7 @@
       <c r="L19" s="152"/>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>109</v>
       </c>
@@ -3966,7 +3977,7 @@
       <c r="L20" s="153"/>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
@@ -3986,7 +3997,7 @@
       <c r="L21" s="153"/>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>108</v>
       </c>
@@ -4006,7 +4017,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>110</v>
       </c>
@@ -4022,7 +4033,7 @@
       <c r="L23" s="153"/>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="97" t="s">
         <v>111</v>
       </c>
@@ -4042,7 +4053,7 @@
       <c r="L24" s="153"/>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>113</v>
       </c>
@@ -4062,7 +4073,7 @@
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>129</v>
       </c>
@@ -4082,7 +4093,7 @@
       <c r="L26" s="153"/>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="99" t="s">
         <v>114</v>
       </c>
@@ -4102,7 +4113,7 @@
       <c r="L27" s="153"/>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4120,7 +4131,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
@@ -4138,7 +4149,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>159</v>
       </c>
@@ -4156,7 +4167,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4174,7 +4185,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
@@ -4192,7 +4203,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4210,7 +4221,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4228,7 +4239,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>148</v>
       </c>
@@ -4246,7 +4257,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4264,7 +4275,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>147</v>
       </c>
@@ -4282,7 +4293,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4296,7 +4307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4308,7 +4319,7 @@
       </c>
       <c r="E40" s="113"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4318,7 +4329,7 @@
       </c>
       <c r="E41" s="113"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -4331,7 +4342,7 @@
       </c>
       <c r="E42" s="113"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4343,7 +4354,7 @@
       </c>
       <c r="E43" s="113"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4355,7 +4366,7 @@
       </c>
       <c r="E44" s="113"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
@@ -4368,7 +4379,7 @@
       </c>
       <c r="E45" s="113"/>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
@@ -4380,7 +4391,7 @@
       </c>
       <c r="E46" s="113"/>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4393,7 +4404,7 @@
       </c>
       <c r="E47" s="113"/>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4406,7 +4417,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
@@ -4418,7 +4429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4431,7 +4442,7 @@
       </c>
       <c r="E50" s="113"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4442,7 +4453,7 @@
       </c>
       <c r="E51" s="113"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4455,7 +4466,7 @@
       </c>
       <c r="E52" s="113"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4468,7 +4479,7 @@
       </c>
       <c r="E53" s="113"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4481,7 +4492,7 @@
       </c>
       <c r="E54" s="113"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
@@ -4492,7 +4503,7 @@
       </c>
       <c r="E55" s="113"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4502,7 +4513,7 @@
       </c>
       <c r="E56" s="113"/>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4516,7 +4527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4528,7 +4539,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4543,7 +4554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
@@ -4556,7 +4567,7 @@
       </c>
       <c r="E60" s="113"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4567,7 +4578,7 @@
       </c>
       <c r="E61" s="113"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4579,7 +4590,7 @@
       </c>
       <c r="E62" s="113"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4592,7 +4603,7 @@
       </c>
       <c r="E63" s="113"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4604,19 +4615,19 @@
       </c>
       <c r="E64" s="113"/>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
@@ -4624,19 +4635,19 @@
         <v>33448</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="121"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
@@ -4644,13 +4655,13 @@
         <v>554255</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
@@ -4658,19 +4669,19 @@
         <v>62222</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="121"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
@@ -4678,7 +4689,7 @@
         <v>83483</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>242</v>
       </c>
@@ -4686,28 +4697,28 @@
         <v>1379544</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4760,7 +4771,7 @@
       <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -4768,7 +4779,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -4776,7 +4787,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -4801,7 +4812,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -4830,7 +4841,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -4852,7 +4863,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>144</v>
@@ -4902,7 +4913,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -4953,7 +4964,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -5004,7 +5015,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>109</v>
@@ -5055,7 +5066,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>105</v>
@@ -5106,7 +5117,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>107</v>
@@ -5157,7 +5168,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="94" t="s">
         <v>100</v>
@@ -5208,7 +5219,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="97" t="s">
         <v>108</v>
@@ -5259,7 +5270,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="98" t="s">
         <v>106</v>
@@ -5310,7 +5321,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="97" t="s">
         <v>110</v>
@@ -5361,7 +5372,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="97" t="s">
         <v>111</v>
@@ -5412,7 +5423,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>113</v>
@@ -5463,7 +5474,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>129</v>
@@ -5514,7 +5525,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="99" t="s">
         <v>114</v>
@@ -5565,7 +5576,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="236" t="s">
         <v>216</v>
@@ -5616,7 +5627,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="236" t="s">
         <v>217</v>
@@ -5667,7 +5678,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="94" t="s">
         <v>115</v>
@@ -5718,7 +5729,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>116</v>
@@ -5769,7 +5780,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>117</v>
@@ -5820,7 +5831,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="102" t="s">
         <v>118</v>
@@ -5871,7 +5882,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="101" t="s">
         <v>138</v>
@@ -5922,7 +5933,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="115" t="s">
         <v>145</v>
@@ -5973,7 +5984,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -6024,7 +6035,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -6075,7 +6086,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>121</v>
@@ -6126,7 +6137,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>159</v>
@@ -6177,7 +6188,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -6228,7 +6239,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>120</v>
@@ -6279,7 +6290,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -6330,7 +6341,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -6381,7 +6392,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -6432,7 +6443,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>148</v>
@@ -6483,7 +6494,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>149</v>
@@ -6534,7 +6545,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>147</v>
@@ -6585,7 +6596,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>151</v>
@@ -6636,7 +6647,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>169</v>
@@ -6687,7 +6698,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -6705,7 +6716,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>99</v>
@@ -6756,7 +6767,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>126</v>
@@ -6807,7 +6818,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>101</v>
@@ -6858,7 +6869,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>112</v>
@@ -6909,7 +6920,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>127</v>
@@ -6960,7 +6971,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>139</v>
@@ -7011,7 +7022,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>130</v>
@@ -7062,7 +7073,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="103" t="s">
         <v>160</v>
@@ -7080,7 +7091,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>157</v>
@@ -7131,7 +7142,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>158</v>
@@ -7182,7 +7193,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="103" t="s">
         <v>131</v>
@@ -7199,7 +7210,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -7249,7 +7260,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>125</v>
@@ -7299,7 +7310,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>128</v>
@@ -7349,7 +7360,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -7399,1260 +7410,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -8696,7 +8707,7 @@
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -8704,11 +8715,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -8724,7 +8735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8748,7 +8759,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -8764,7 +8775,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -8779,18 +8790,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25551.835109490243</v>
+        <v>-25523.568702849334</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0184640562867513</v>
+        <v>1.0184436306491795</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -8804,7 +8815,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -8827,13 +8838,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -8853,7 +8864,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -8878,7 +8889,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -8906,7 +8917,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -8934,7 +8945,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -8962,7 +8973,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -8990,7 +9001,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -9017,7 +9028,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>170</v>
       </c>
@@ -9039,7 +9050,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -9061,7 +9072,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -9082,7 +9093,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -9107,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -9134,7 +9145,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -9155,7 +9166,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9181,7 +9192,7 @@
         <v>520807</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -9190,7 +9201,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -9212,7 +9223,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -9241,7 +9252,7 @@
         <v>0.64035904051384285</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -9274,7 +9285,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -9307,7 +9318,7 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -9337,7 +9348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -9349,7 +9360,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9375,7 +9386,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9402,7 +9413,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9429,7 +9440,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
@@ -9459,7 +9470,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -9486,7 +9497,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -9512,7 +9523,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -9539,7 +9550,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9566,7 +9577,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -9587,7 +9598,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -9608,7 +9619,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -9629,7 +9640,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -9650,7 +9661,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -9676,7 +9687,7 @@
         <v>21261</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -9685,7 +9696,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -9704,7 +9715,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -9723,7 +9734,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -9753,7 +9764,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -9783,7 +9794,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -9810,7 +9821,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -9837,20 +9848,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -9867,7 +9878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -9877,18 +9888,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0252013300919649</v>
+        <v>1.0177169565481883</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4433.9957526477483</v>
+        <v>4401.6258370709147</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -9897,7 +9908,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>161</v>
       </c>
@@ -9908,7 +9919,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -9923,7 +9934,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -9939,7 +9950,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -9954,7 +9965,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -9963,7 +9974,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>164</v>
       </c>
@@ -9977,7 +9988,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -9998,7 +10009,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>150</v>
       </c>
@@ -10019,7 +10030,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
@@ -10040,7 +10051,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>162</v>
       </c>
@@ -10055,7 +10066,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
@@ -10076,7 +10087,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -10086,7 +10097,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
@@ -10100,7 +10111,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
@@ -10121,7 +10132,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>163</v>
       </c>
@@ -10136,7 +10147,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
@@ -10157,7 +10168,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>137</v>
@@ -10179,7 +10190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
@@ -10198,7 +10209,7 @@
       <c r="I73" s="255"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -10219,7 +10230,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10249,7 +10260,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -10270,7 +10281,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
@@ -10300,7 +10311,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -10321,7 +10332,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
@@ -10351,7 +10362,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -10381,7 +10392,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -10412,7 +10423,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>186</v>
       </c>
@@ -10442,7 +10453,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
@@ -10472,7 +10483,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -10493,7 +10504,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>176</v>
       </c>
@@ -10523,7 +10534,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>172</v>
       </c>
@@ -10544,28 +10555,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>228</v>
       </c>
       <c r="C87" s="165">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.078125156594392E-2</v>
+        <v>7.1301782665683405E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2634338504952359E-2</v>
+        <v>8.3242038173248753E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2634338504952359E-2</v>
+        <v>8.3242038173248753E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>227</v>
       </c>
@@ -10595,32 +10606,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>245</v>
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8862748732251566E-2</v>
+        <v>6.9369171005602984E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8862748732251566E-2</v>
+        <v>6.9369171005602984E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8862748732251566E-2</v>
+        <v>6.9369171005602984E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>166</v>
@@ -10630,7 +10641,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>167</v>
       </c>
@@ -10652,7 +10663,7 @@
       <c r="I92" s="254"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
@@ -10669,24 +10680,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>112.73873281908052</v>
+        <v>113.05549834282016</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>229</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>112.73873281908052</v>
+        <v>113.05549834282016</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -10694,22 +10705,22 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>88.124703256634831</v>
+        <v>88.333666577865515</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>88.124703256634831</v>
+        <v>88.333666577865515</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -10735,97 +10746,97 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1837737.7700481915</v>
+        <v>1843371.3309824422</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>60.214381033819919</v>
+        <v>39.807843450808683</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>85.549111113186427</v>
+        <v>85.811360786769868</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>85.549111113186427</v>
+        <v>85.811360786769868</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>155</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4763.3396711568648</v>
+        <v>4729.7713845040016</v>
       </c>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.22173972883354384</v>
+        <v>0.22017708092395127</v>
       </c>
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>156</v>
       </c>
       <c r="C99" s="109">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-20788.495438333375</v>
+        <v>-20793.797318345332</v>
       </c>
       <c r="E99" s="223"/>
       <c r="F99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
-        <v>-1.1128915862657658</v>
+        <v>-1.1131754171795616</v>
       </c>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.96773181414414433</v>
+        <v>-0.96797862363440146</v>
       </c>
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1812185.9349387013</v>
+        <v>1817847.7622795929</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-H98+F99,0)</f>
-        <v>58.87974971872061</v>
+        <v>38.474490952705168</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+F99,0)</f>
-        <v>84.214479798087126</v>
+        <v>84.478008288666359</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>84.359639570208742</v>
+        <v>84.623205082211527</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>105.44954946276093</v>
+        <v>105.77900635276441</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>174</v>
       </c>
@@ -10849,37 +10860,37 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1436508.035875292</v>
+        <v>1440281.551246996</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>47.06789164379574</v>
+        <v>31.103067273250556</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>66.871339088197502</v>
+        <v>67.047001193576534</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>66.871339088197502</v>
+        <v>67.047001193576534</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>83.589173860246873</v>
+        <v>83.808751491970668</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
@@ -10901,36 +10912,36 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>1622787.848249122</v>
+        <v>1627505.1219644188</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>52.973820681258175</v>
+        <v>34.788779112977863</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>75.542909443142321</v>
+        <v>75.762504741121447</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>75.615489329203115</v>
+        <v>75.835103137894038</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>94.519361661503893</v>
+        <v>94.793878922367554</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
